--- a/appium/Results/ExcelSheetsFolder/04072025/ExcelResults.xlsx
+++ b/appium/Results/ExcelSheetsFolder/04072025/ExcelResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="25">
   <si>
     <t>DeviceName</t>
   </si>
@@ -69,6 +69,24 @@
   </si>
   <si>
     <t>CNBC Awaaz</t>
+  </si>
+  <si>
+    <t>sunnxt_8.0.23</t>
+  </si>
+  <si>
+    <t>Petta</t>
+  </si>
+  <si>
+    <t>ET - Telugu</t>
+  </si>
+  <si>
+    <t>35 chinna vishayam ila</t>
+  </si>
+  <si>
+    <t>upadhyaksha</t>
+  </si>
+  <si>
+    <t>ayalaan</t>
   </si>
 </sst>
 </file>
@@ -113,7 +131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -567,6 +585,426 @@
         <v>11</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/appium/Results/ExcelSheetsFolder/04072025/ExcelResults.xlsx
+++ b/appium/Results/ExcelSheetsFolder/04072025/ExcelResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="40">
   <si>
     <t>DeviceName</t>
   </si>
@@ -87,6 +87,51 @@
   </si>
   <si>
     <t>ayalaan</t>
+  </si>
+  <si>
+    <t>sonyliv_3.4.51</t>
+  </si>
+  <si>
+    <t>pani</t>
+  </si>
+  <si>
+    <t>Kankhajura</t>
+  </si>
+  <si>
+    <t>maharani</t>
+  </si>
+  <si>
+    <t>marco</t>
+  </si>
+  <si>
+    <t>piku</t>
+  </si>
+  <si>
+    <t>zee5_5.65.0</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>src_fmt = invaild</t>
+  </si>
+  <si>
+    <t>NA NA</t>
+  </si>
+  <si>
+    <t>vimanam</t>
+  </si>
+  <si>
+    <t>Ummadi Kutumbam</t>
+  </si>
+  <si>
+    <t>Auto Shankar</t>
+  </si>
+  <si>
+    <t>Zee Telugu HD</t>
+  </si>
+  <si>
+    <t>Zee Kannada HD</t>
   </si>
 </sst>
 </file>
@@ -131,7 +176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -141,7 +186,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="18.17578125"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="28.09765625"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.1171875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.11328125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.1875"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="14.10546875"/>
   </cols>
   <sheetData>
@@ -1005,6 +1050,226 @@
         <v>11</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F49" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F50" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F51" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F52" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F53" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F54" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
